--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cacigcc-my.sharepoint.com/personal/dean_alvarez_caci_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{65EE0222-53C8-4022-8AB1-DE8B8FD61B78}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E48754C1-CC65-4B10-BD04-9868F1321338}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
   <si>
     <t>Faster RCNN (FL)</t>
   </si>
@@ -180,57 +180,9 @@
     <t>SSD (FL)</t>
   </si>
   <si>
-    <t>(reported not my testing)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.391</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50      | area=   all | maxDets=100 ] = 0.591</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.75      | area=   all | maxDets=100 ] = 0.423</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area= small | maxDets=100 ] = 0.218</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ] = 0.427</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.502</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=  1 ] = 0.329</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets= 10 ] = 0.520</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.551</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= small | maxDets=100 ] = 0.340</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ] = 0.601</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.714</t>
-  </si>
-  <si>
     <t>ReitnaNet (FL)</t>
   </si>
   <si>
-    <t>ReitnaNet (PL)</t>
-  </si>
-  <si>
-    <t>SSD (PL)</t>
-  </si>
-  <si>
-    <t>Faster RCNN (PL)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.088</t>
   </si>
   <si>
@@ -298,6 +250,78 @@
   </si>
   <si>
     <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.448</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50      | area=   all | maxDets=100 ] = 0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=  1 ] = 0.042</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets= 10 ] = 0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= small | maxDets=100 ] = 0.005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ] = 0.026</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.346</t>
+  </si>
+  <si>
+    <t>SSD (SC)</t>
+  </si>
+  <si>
+    <t>ReitnaNet (SC)</t>
+  </si>
+  <si>
+    <t>Faster RCNN (SC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.103</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50      | area=   all | maxDets=100 ] = 0.171</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area= small | maxDets=100 ] = 0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ] = 0.037</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=  1 ] = 0.197</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets= 10 ] = 0.261</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.277</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= small | maxDets=100 ] = 0.024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ] = 0.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.410</t>
+  </si>
+  <si>
+    <t>SSD (PL 45 class)</t>
   </si>
 </sst>
 </file>
@@ -434,15 +458,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -452,13 +477,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
@@ -470,10 +489,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Accent1" xfId="2" builtinId="30"/>
@@ -793,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AJ30"/>
+  <dimension ref="B1:AJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V38" sqref="V38"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,27 +822,24 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="8"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="11"/>
       <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="V2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="AE2" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="11"/>
-      <c r="AH2" t="s">
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="AE2" s="13" t="s">
         <v>51</v>
       </c>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="15"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K3" s="3" t="s">
@@ -841,7 +853,7 @@
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
       <c r="T3" s="3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
@@ -850,8 +862,8 @@
       <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
-      <c r="AC3" s="15" t="s">
-        <v>52</v>
+      <c r="AC3" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
@@ -873,7 +885,7 @@
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
       <c r="T4" s="4" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="U4" s="4"/>
       <c r="V4" s="4"/>
@@ -882,8 +894,8 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AC4" s="16" t="s">
-        <v>53</v>
+      <c r="AC4" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="AD4" s="4"/>
       <c r="AE4" s="4"/>
@@ -905,7 +917,7 @@
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
@@ -914,8 +926,8 @@
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
-      <c r="AC5" s="15" t="s">
-        <v>54</v>
+      <c r="AC5" s="5" t="s">
+        <v>3</v>
       </c>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
@@ -937,7 +949,7 @@
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
       <c r="T6" s="4" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="U6" s="4"/>
       <c r="V6" s="4"/>
@@ -946,8 +958,8 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AC6" s="16" t="s">
-        <v>55</v>
+      <c r="AC6" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="AD6" s="4"/>
       <c r="AE6" s="4"/>
@@ -969,7 +981,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
       <c r="T7" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
@@ -978,8 +990,8 @@
       <c r="Y7" s="3"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
-      <c r="AC7" s="15" t="s">
-        <v>56</v>
+      <c r="AC7" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
@@ -1001,7 +1013,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="T8" s="4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
@@ -1010,8 +1022,8 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AC8" s="16" t="s">
-        <v>57</v>
+      <c r="AC8" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="AD8" s="4"/>
       <c r="AE8" s="4"/>
@@ -1033,7 +1045,7 @@
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
       <c r="T9" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
@@ -1042,8 +1054,8 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
-      <c r="AC9" s="17" t="s">
-        <v>58</v>
+      <c r="AC9" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
@@ -1054,12 +1066,12 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="2:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15"/>
       <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1071,7 +1083,7 @@
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="T10" s="2" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
@@ -1080,8 +1092,8 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
-      <c r="AC10" s="18" t="s">
-        <v>59</v>
+      <c r="AC10" s="8" t="s">
+        <v>79</v>
       </c>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
@@ -1092,7 +1104,7 @@
       <c r="AJ10" s="2"/>
     </row>
     <row r="11" spans="2:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="3"/>
@@ -1113,7 +1125,7 @@
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
       <c r="T11" s="1" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
@@ -1122,8 +1134,8 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
-      <c r="AC11" s="17" t="s">
-        <v>60</v>
+      <c r="AC11" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
@@ -1134,7 +1146,7 @@
       <c r="AJ11" s="1"/>
     </row>
     <row r="12" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
       <c r="C12" s="4"/>
@@ -1155,7 +1167,7 @@
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="T12" s="2" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1164,8 +1176,8 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
-      <c r="AC12" s="18" t="s">
-        <v>61</v>
+      <c r="AC12" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="AD12" s="2"/>
       <c r="AE12" s="2"/>
@@ -1176,7 +1188,7 @@
       <c r="AJ12" s="2"/>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C13" s="3"/>
@@ -1197,7 +1209,7 @@
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="T13" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
@@ -1206,8 +1218,8 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
-      <c r="AC13" s="17" t="s">
-        <v>62</v>
+      <c r="AC13" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
@@ -1218,7 +1230,7 @@
       <c r="AJ13" s="1"/>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="6" t="s">
         <v>40</v>
       </c>
       <c r="C14" s="4"/>
@@ -1239,7 +1251,7 @@
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
@@ -1248,8 +1260,8 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
-      <c r="AC14" s="18" t="s">
-        <v>63</v>
+      <c r="AC14" s="8" t="s">
+        <v>83</v>
       </c>
       <c r="AD14" s="2"/>
       <c r="AE14" s="2"/>
@@ -1260,7 +1272,7 @@
       <c r="AJ14" s="2"/>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C15" s="3"/>
@@ -1272,7 +1284,7 @@
       <c r="I15" s="3"/>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="6" t="s">
         <v>42</v>
       </c>
       <c r="C16" s="4"/>
@@ -1284,7 +1296,7 @@
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="7" t="s">
         <v>43</v>
       </c>
       <c r="C17" s="1"/>
@@ -1296,7 +1308,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="2:36" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="8" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="2"/>
@@ -1306,24 +1318,24 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="M18" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N18" s="7"/>
-      <c r="O18" s="8"/>
-      <c r="V18" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="W18" s="10"/>
-      <c r="X18" s="11"/>
-      <c r="AE18" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AF18" s="10"/>
-      <c r="AG18" s="11"/>
+      <c r="M18" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="11"/>
+      <c r="V18" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="W18" s="14"/>
+      <c r="X18" s="15"/>
+      <c r="AE18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF18" s="14"/>
+      <c r="AG18" s="15"/>
     </row>
     <row r="19" spans="2:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="7" t="s">
         <v>45</v>
       </c>
       <c r="C19" s="1"/>
@@ -1353,8 +1365,8 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-      <c r="AC19" s="15" t="s">
-        <v>80</v>
+      <c r="AC19" s="5" t="s">
+        <v>64</v>
       </c>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
@@ -1365,7 +1377,7 @@
       <c r="AJ19" s="3"/>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="8" t="s">
         <v>46</v>
       </c>
       <c r="C20" s="2"/>
@@ -1395,8 +1407,8 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AC20" s="16" t="s">
-        <v>81</v>
+      <c r="AC20" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
@@ -1407,7 +1419,7 @@
       <c r="AJ20" s="4"/>
     </row>
     <row r="21" spans="2:36" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="7" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="1"/>
@@ -1437,8 +1449,8 @@
       <c r="Y21" s="3"/>
       <c r="Z21" s="3"/>
       <c r="AA21" s="3"/>
-      <c r="AC21" s="15" t="s">
-        <v>82</v>
+      <c r="AC21" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
@@ -1449,7 +1461,7 @@
       <c r="AJ21" s="3"/>
     </row>
     <row r="22" spans="2:36" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="8" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="2"/>
@@ -1479,7 +1491,7 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AC22" s="16" t="s">
+      <c r="AC22" s="6" t="s">
         <v>4</v>
       </c>
       <c r="AD22" s="4"/>
@@ -1511,8 +1523,8 @@
       <c r="Y23" s="3"/>
       <c r="Z23" s="3"/>
       <c r="AA23" s="3"/>
-      <c r="AC23" s="15" t="s">
-        <v>83</v>
+      <c r="AC23" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
@@ -1543,8 +1555,8 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AC24" s="16" t="s">
-        <v>84</v>
+      <c r="AC24" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
@@ -1575,8 +1587,8 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
-      <c r="AC25" s="17" t="s">
-        <v>85</v>
+      <c r="AC25" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
@@ -1607,8 +1619,8 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
-      <c r="AC26" s="18" t="s">
-        <v>86</v>
+      <c r="AC26" s="8" t="s">
+        <v>70</v>
       </c>
       <c r="AD26" s="2"/>
       <c r="AE26" s="2"/>
@@ -1639,8 +1651,8 @@
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
-      <c r="AC27" s="17" t="s">
-        <v>87</v>
+      <c r="AC27" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
@@ -1671,8 +1683,8 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
-      <c r="AC28" s="18" t="s">
-        <v>88</v>
+      <c r="AC28" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
@@ -1703,8 +1715,8 @@
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
-      <c r="AC29" s="17" t="s">
-        <v>89</v>
+      <c r="AC29" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
@@ -1735,8 +1747,8 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
-      <c r="AC30" s="18" t="s">
-        <v>90</v>
+      <c r="AC30" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="AD30" s="2"/>
       <c r="AE30" s="2"/>
@@ -1746,8 +1758,162 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
     </row>
+    <row r="33" spans="20:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="20:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V34" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="W34" s="14"/>
+      <c r="X34" s="15"/>
+    </row>
+    <row r="35" spans="20:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="U35" s="3"/>
+      <c r="V35" s="3"/>
+      <c r="W35" s="3"/>
+      <c r="X35" s="3"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="3"/>
+    </row>
+    <row r="36" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T36" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+    </row>
+    <row r="37" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="U37" s="3"/>
+      <c r="V37" s="3"/>
+      <c r="W37" s="3"/>
+      <c r="X37" s="3"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="3"/>
+    </row>
+    <row r="38" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T38" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+    </row>
+    <row r="39" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T40" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+    </row>
+    <row r="41" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T41" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+    </row>
+    <row r="42" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+    </row>
+    <row r="43" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+    </row>
+    <row r="44" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T44" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+    </row>
+    <row r="45" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+    </row>
+    <row r="46" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="T46" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="V34:X34"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="V2:X2"/>
     <mergeCell ref="AE2:AG2"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cacigcc-my.sharepoint.com/personal/dean_alvarez_caci_com/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E48754C1-CC65-4B10-BD04-9868F1321338}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C76F26BD-FE9B-4888-BF63-636DC391AEF0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="108">
   <si>
     <t>Faster RCNN (FL)</t>
   </si>
@@ -322,6 +322,33 @@
   </si>
   <si>
     <t>SSD (PL 45 class)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50      | area=   all | maxDets=100 ] = 0.002</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.75      | area=   all | maxDets=100 ] = 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Precision  (AP) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=  1 ] = 0.047</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets= 10 ] = 0.069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=   all | maxDets=100 ] = 0.071</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= small | maxDets=100 ] = 0.003</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area=medium | maxDets=100 ] = 0.010</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Recall     (AR) @[ IoU=0.50:0.95 | area= large | maxDets=100 ] = 0.103</t>
   </si>
 </sst>
 </file>
@@ -469,6 +496,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -478,15 +514,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -811,7 +838,7 @@
   <dimension ref="B1:AJ46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,24 +849,24 @@
   <sheetData>
     <row r="1" spans="2:36" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="11"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="14"/>
       <c r="P2" t="s">
         <v>36</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="AE2" s="13" t="s">
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="AE2" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="15"/>
+      <c r="AF2" s="10"/>
+      <c r="AG2" s="11"/>
     </row>
     <row r="3" spans="2:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="K3" s="3" t="s">
@@ -1066,12 +1093,12 @@
       <c r="AJ9" s="1"/>
     </row>
     <row r="10" spans="2:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="11"/>
       <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
@@ -1318,21 +1345,21 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="M18" s="9" t="s">
+      <c r="M18" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="11"/>
-      <c r="V18" s="13" t="s">
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="V18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="W18" s="14"/>
-      <c r="X18" s="15"/>
-      <c r="AE18" s="13" t="s">
+      <c r="W18" s="10"/>
+      <c r="X18" s="11"/>
+      <c r="AE18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AF18" s="14"/>
-      <c r="AG18" s="15"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="11"/>
     </row>
     <row r="19" spans="2:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
@@ -1758,16 +1785,21 @@
       <c r="AI30" s="2"/>
       <c r="AJ30" s="2"/>
     </row>
-    <row r="33" spans="20:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="20:27" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V34" s="13" t="s">
+    <row r="33" spans="20:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="20:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="W34" s="14"/>
-      <c r="X34" s="15"/>
-    </row>
-    <row r="35" spans="20:27" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="T35" s="3" t="s">
+      <c r="W34" s="10"/>
+      <c r="X34" s="11"/>
+      <c r="AE34" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="11"/>
+    </row>
+    <row r="35" spans="20:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="T35" s="5" t="s">
         <v>87</v>
       </c>
       <c r="U35" s="3"/>
@@ -1777,8 +1809,18 @@
       <c r="Y35" s="3"/>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
-    </row>
-    <row r="36" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="3"/>
+      <c r="AI35" s="3"/>
+      <c r="AJ35" s="3"/>
+    </row>
+    <row r="36" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T36" s="4" t="s">
         <v>88</v>
       </c>
@@ -1789,8 +1831,18 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
       <c r="AA36" s="4"/>
-    </row>
-    <row r="37" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC36" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+      <c r="AF36" s="4"/>
+      <c r="AG36" s="4"/>
+      <c r="AH36" s="4"/>
+      <c r="AI36" s="4"/>
+      <c r="AJ36" s="4"/>
+    </row>
+    <row r="37" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T37" s="3" t="s">
         <v>15</v>
       </c>
@@ -1801,8 +1853,18 @@
       <c r="Y37" s="3"/>
       <c r="Z37" s="3"/>
       <c r="AA37" s="3"/>
-    </row>
-    <row r="38" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC37" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="3"/>
+      <c r="AI37" s="3"/>
+      <c r="AJ37" s="3"/>
+    </row>
+    <row r="38" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T38" s="4" t="s">
         <v>89</v>
       </c>
@@ -1813,8 +1875,18 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
       <c r="AA38" s="4"/>
-    </row>
-    <row r="39" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+      <c r="AF38" s="4"/>
+      <c r="AG38" s="4"/>
+      <c r="AH38" s="4"/>
+      <c r="AI38" s="4"/>
+      <c r="AJ38" s="4"/>
+    </row>
+    <row r="39" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T39" s="3" t="s">
         <v>90</v>
       </c>
@@ -1825,8 +1897,18 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC39" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="3"/>
+      <c r="AI39" s="3"/>
+      <c r="AJ39" s="3"/>
+    </row>
+    <row r="40" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T40" s="4" t="s">
         <v>91</v>
       </c>
@@ -1837,8 +1919,18 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
       <c r="AA40" s="4"/>
-    </row>
-    <row r="41" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC40" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+    </row>
+    <row r="41" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T41" s="1" t="s">
         <v>92</v>
       </c>
@@ -1849,8 +1941,18 @@
       <c r="Y41" s="1"/>
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
-    </row>
-    <row r="42" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC41" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+    </row>
+    <row r="42" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T42" s="2" t="s">
         <v>93</v>
       </c>
@@ -1861,8 +1963,18 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
       <c r="AA42" s="2"/>
-    </row>
-    <row r="43" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC42" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+    </row>
+    <row r="43" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T43" s="1" t="s">
         <v>94</v>
       </c>
@@ -1873,8 +1985,18 @@
       <c r="Y43" s="1"/>
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
-    </row>
-    <row r="44" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC43" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+    </row>
+    <row r="44" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T44" s="2" t="s">
         <v>95</v>
       </c>
@@ -1885,8 +2007,18 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
       <c r="AA44" s="2"/>
-    </row>
-    <row r="45" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC44" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+    </row>
+    <row r="45" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T45" s="1" t="s">
         <v>96</v>
       </c>
@@ -1897,8 +2029,18 @@
       <c r="Y45" s="1"/>
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
-    </row>
-    <row r="46" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AC45" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1"/>
+    </row>
+    <row r="46" spans="20:36" x14ac:dyDescent="0.25">
       <c r="T46" s="2" t="s">
         <v>97</v>
       </c>
@@ -1909,9 +2051,19 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
       <c r="AA46" s="2"/>
+      <c r="AC46" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="V34:X34"/>
     <mergeCell ref="M2:O2"/>
@@ -1920,6 +2072,7 @@
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="V18:X18"/>
     <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AE34:AG34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
